--- a/Screen_Design.xlsx
+++ b/Screen_Design.xlsx
@@ -16,15 +16,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Việc cần làm</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Chủ sở hữu</t>
+  </si>
+  <si>
+    <t>Giai đoạn</t>
+  </si>
+  <si>
+    <t>Ngày đến hạn</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Chưa bắt đầu</t>
+  </si>
+  <si>
+    <t>Trước sự kiện</t>
+  </si>
+  <si>
+    <t>Đang thực hiện</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Bị chặn</t>
+  </si>
+  <si>
+    <t>Sau sự kiện</t>
+  </si>
+  <si>
+    <t>Ðã hoàn thành</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -37,21 +85,294 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="Payment Page-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -77,6 +398,20 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F15" displayName="Việc_cần_làm_cho_sự_kiện1" name="Việc_cần_làm_cho_sự_kiện1" id="1">
+  <tableColumns count="6">
+    <tableColumn name="Việc cần làm" id="1"/>
+    <tableColumn name="Trạng thái" id="2"/>
+    <tableColumn name="Chủ sở hữu" id="3"/>
+    <tableColumn name="Giai đoạn" id="4"/>
+    <tableColumn name="Ngày đến hạn" id="5"/>
+    <tableColumn name="Ghi chú" id="6"/>
+  </tableColumns>
+  <tableStyleInfo name="Payment Page-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +684,180 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.13"/>
+    <col customWidth="1" min="2" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="15.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D15">
+      <formula1>"Trước sự kiện,Ngày,Sau sự kiện"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E15">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A15 F2:F15"/>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B15">
+      <formula1>"Chưa bắt đầu,Đang thực hiện,Bị chặn,Ðã hoàn thành"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>